--- a/SchedulingData/static7/pso/scheduling1_8.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.3</v>
+        <v>54.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.64</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73.28</v>
+        <v>49.64</v>
       </c>
       <c r="E3" t="n">
-        <v>24.852</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>56.12</v>
+        <v>61.4</v>
       </c>
       <c r="E4" t="n">
-        <v>26.568</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73.28</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>138.08</v>
+        <v>79.84</v>
       </c>
       <c r="E5" t="n">
-        <v>19.992</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="D6" t="n">
-        <v>61.4</v>
+        <v>124.1</v>
       </c>
       <c r="E6" t="n">
-        <v>25.06</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.12</v>
+        <v>79.84</v>
       </c>
       <c r="D7" t="n">
-        <v>122.04</v>
+        <v>156.88</v>
       </c>
       <c r="E7" t="n">
-        <v>22.096</v>
+        <v>23.532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.23999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>26.876</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>68.23999999999999</v>
+        <v>124.1</v>
       </c>
       <c r="D9" t="n">
-        <v>129.44</v>
+        <v>180.3</v>
       </c>
       <c r="E9" t="n">
-        <v>23.356</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122.04</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>165.62</v>
+        <v>145.66</v>
       </c>
       <c r="E10" t="n">
-        <v>19.368</v>
+        <v>19.744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.44</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>179.94</v>
+        <v>63.1</v>
       </c>
       <c r="E11" t="n">
-        <v>19.436</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="12">
@@ -656,668 +656,668 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>179.94</v>
+        <v>180.3</v>
       </c>
       <c r="D12" t="n">
-        <v>243.26</v>
+        <v>225.36</v>
       </c>
       <c r="E12" t="n">
-        <v>15.744</v>
+        <v>15.024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>243.26</v>
+        <v>145.66</v>
       </c>
       <c r="D13" t="n">
-        <v>317.66</v>
+        <v>186.08</v>
       </c>
       <c r="E13" t="n">
-        <v>10.424</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.3</v>
+        <v>61.4</v>
       </c>
       <c r="D14" t="n">
-        <v>126.5</v>
+        <v>115.24</v>
       </c>
       <c r="E14" t="n">
-        <v>22.64</v>
+        <v>21.796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126.5</v>
+        <v>225.36</v>
       </c>
       <c r="D15" t="n">
-        <v>173.52</v>
+        <v>266.4</v>
       </c>
       <c r="E15" t="n">
-        <v>19.568</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61.4</v>
+        <v>156.88</v>
       </c>
       <c r="D16" t="n">
-        <v>136.56</v>
+        <v>211.58</v>
       </c>
       <c r="E16" t="n">
-        <v>20.644</v>
+        <v>20.172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136.56</v>
+        <v>63.1</v>
       </c>
       <c r="D17" t="n">
-        <v>186.86</v>
+        <v>116.22</v>
       </c>
       <c r="E17" t="n">
-        <v>17.724</v>
+        <v>22.168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>317.66</v>
+        <v>116.22</v>
       </c>
       <c r="D18" t="n">
-        <v>366.76</v>
+        <v>170.7</v>
       </c>
       <c r="E18" t="n">
-        <v>6.644</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>138.08</v>
+        <v>49.64</v>
       </c>
       <c r="D19" t="n">
-        <v>183.4</v>
+        <v>96.14</v>
       </c>
       <c r="E19" t="n">
-        <v>17.08</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>183.4</v>
+        <v>170.7</v>
       </c>
       <c r="D20" t="n">
-        <v>227.5</v>
+        <v>212.46</v>
       </c>
       <c r="E20" t="n">
-        <v>13.8</v>
+        <v>14.804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>173.52</v>
+        <v>96.14</v>
       </c>
       <c r="D21" t="n">
-        <v>229.82</v>
+        <v>147.96</v>
       </c>
       <c r="E21" t="n">
-        <v>16.048</v>
+        <v>19.144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>229.82</v>
+        <v>266.4</v>
       </c>
       <c r="D22" t="n">
-        <v>294.16</v>
+        <v>351.9</v>
       </c>
       <c r="E22" t="n">
-        <v>12.704</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>186.08</v>
       </c>
       <c r="D23" t="n">
-        <v>66.40000000000001</v>
+        <v>227.84</v>
       </c>
       <c r="E23" t="n">
-        <v>24.06</v>
+        <v>13.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66.40000000000001</v>
+        <v>115.24</v>
       </c>
       <c r="D24" t="n">
-        <v>119.52</v>
+        <v>181.48</v>
       </c>
       <c r="E24" t="n">
-        <v>20.868</v>
+        <v>18.772</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>366.76</v>
+        <v>211.58</v>
       </c>
       <c r="D25" t="n">
-        <v>417.86</v>
+        <v>273.48</v>
       </c>
       <c r="E25" t="n">
-        <v>3.164</v>
+        <v>16.092</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>165.62</v>
+        <v>273.48</v>
       </c>
       <c r="D26" t="n">
-        <v>207.64</v>
+        <v>330.02</v>
       </c>
       <c r="E26" t="n">
-        <v>16.296</v>
+        <v>11.568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>119.52</v>
+        <v>181.48</v>
       </c>
       <c r="D27" t="n">
-        <v>195.78</v>
+        <v>247.4</v>
       </c>
       <c r="E27" t="n">
-        <v>17.332</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>186.86</v>
+        <v>147.96</v>
       </c>
       <c r="D28" t="n">
-        <v>243.5</v>
+        <v>220.86</v>
       </c>
       <c r="E28" t="n">
-        <v>13.2</v>
+        <v>14.984</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>294.16</v>
+        <v>227.84</v>
       </c>
       <c r="D29" t="n">
-        <v>368.42</v>
+        <v>307.54</v>
       </c>
       <c r="E29" t="n">
-        <v>8.388</v>
+        <v>9.936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>207.64</v>
+        <v>220.86</v>
       </c>
       <c r="D30" t="n">
-        <v>256.24</v>
+        <v>296.26</v>
       </c>
       <c r="E30" t="n">
-        <v>12.576</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>256.24</v>
+        <v>307.54</v>
       </c>
       <c r="D31" t="n">
-        <v>319.78</v>
+        <v>362.74</v>
       </c>
       <c r="E31" t="n">
-        <v>8.832000000000001</v>
+        <v>6.036</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>417.86</v>
+        <v>212.46</v>
       </c>
       <c r="D32" t="n">
-        <v>482.32</v>
+        <v>274.52</v>
       </c>
       <c r="E32" t="n">
-        <v>0.308</v>
+        <v>12.208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>482.32</v>
+        <v>362.74</v>
       </c>
       <c r="D33" t="n">
-        <v>578.1</v>
+        <v>429.54</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>319.78</v>
+        <v>296.26</v>
       </c>
       <c r="D34" t="n">
-        <v>388.72</v>
+        <v>374.42</v>
       </c>
       <c r="E34" t="n">
-        <v>4.568</v>
+        <v>8.368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>227.5</v>
+        <v>429.54</v>
       </c>
       <c r="D35" t="n">
-        <v>287.7</v>
+        <v>524.9299999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>9.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>578.1</v>
+        <v>524.9299999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>658</v>
+        <v>605.6900000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>27.64</v>
+        <v>25.584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>195.78</v>
+        <v>247.4</v>
       </c>
       <c r="D37" t="n">
-        <v>276.18</v>
+        <v>301</v>
       </c>
       <c r="E37" t="n">
-        <v>12.392</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>368.42</v>
+        <v>301</v>
       </c>
       <c r="D38" t="n">
-        <v>426.04</v>
+        <v>347.16</v>
       </c>
       <c r="E38" t="n">
-        <v>4.736</v>
+        <v>6.604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>287.7</v>
+        <v>605.6900000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>354.5</v>
+        <v>666.01</v>
       </c>
       <c r="E39" t="n">
-        <v>6.82</v>
+        <v>22.672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>388.72</v>
+        <v>374.42</v>
       </c>
       <c r="D40" t="n">
-        <v>469.16</v>
+        <v>445.92</v>
       </c>
       <c r="E40" t="n">
-        <v>1.604</v>
+        <v>4.848</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>469.16</v>
+        <v>351.9</v>
       </c>
       <c r="D41" t="n">
-        <v>562.35</v>
+        <v>431.6</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>243.5</v>
+        <v>347.16</v>
       </c>
       <c r="D42" t="n">
-        <v>329.76</v>
+        <v>406.16</v>
       </c>
       <c r="E42" t="n">
-        <v>9.664</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>329.76</v>
+        <v>431.6</v>
       </c>
       <c r="D43" t="n">
-        <v>387.82</v>
+        <v>494.08</v>
       </c>
       <c r="E43" t="n">
-        <v>5.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>426.04</v>
+        <v>494.08</v>
       </c>
       <c r="D44" t="n">
-        <v>500.62</v>
+        <v>575.72</v>
       </c>
       <c r="E44" t="n">
-        <v>0.368</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>500.62</v>
+        <v>274.52</v>
       </c>
       <c r="D45" t="n">
-        <v>581.78</v>
+        <v>339.3</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>387.82</v>
+        <v>406.16</v>
       </c>
       <c r="D46" t="n">
-        <v>435.82</v>
+        <v>480.66</v>
       </c>
       <c r="E46" t="n">
-        <v>1.808</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>435.82</v>
+        <v>480.66</v>
       </c>
       <c r="D47" t="n">
-        <v>533.7</v>
+        <v>591.03</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1340,250 +1340,250 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>276.18</v>
+        <v>445.92</v>
       </c>
       <c r="D48" t="n">
-        <v>323.78</v>
+        <v>499.5</v>
       </c>
       <c r="E48" t="n">
-        <v>9.752000000000001</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>354.5</v>
+        <v>575.72</v>
       </c>
       <c r="D49" t="n">
-        <v>416.7</v>
+        <v>641.42</v>
       </c>
       <c r="E49" t="n">
-        <v>4.18</v>
+        <v>23.496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>533.7</v>
+        <v>499.5</v>
       </c>
       <c r="D50" t="n">
-        <v>593.14</v>
+        <v>576.96</v>
       </c>
       <c r="E50" t="n">
-        <v>26.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>593.14</v>
+        <v>576.96</v>
       </c>
       <c r="D51" t="n">
-        <v>660.84</v>
+        <v>615.26</v>
       </c>
       <c r="E51" t="n">
-        <v>22.596</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>562.35</v>
+        <v>330.02</v>
       </c>
       <c r="D52" t="n">
-        <v>643.99</v>
+        <v>369.88</v>
       </c>
       <c r="E52" t="n">
-        <v>26.976</v>
+        <v>8.712</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>323.78</v>
+        <v>591.03</v>
       </c>
       <c r="D53" t="n">
-        <v>384.92</v>
+        <v>654.75</v>
       </c>
       <c r="E53" t="n">
-        <v>6.728</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>581.78</v>
+        <v>641.42</v>
       </c>
       <c r="D54" t="n">
-        <v>648.14</v>
+        <v>706.62</v>
       </c>
       <c r="E54" t="n">
-        <v>26.024</v>
+        <v>19.576</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>384.92</v>
+        <v>369.88</v>
       </c>
       <c r="D55" t="n">
-        <v>442.12</v>
+        <v>447.36</v>
       </c>
       <c r="E55" t="n">
-        <v>2.648</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>643.99</v>
+        <v>615.26</v>
       </c>
       <c r="D56" t="n">
-        <v>708.5700000000001</v>
+        <v>679.36</v>
       </c>
       <c r="E56" t="n">
-        <v>23.148</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>658</v>
+        <v>447.36</v>
       </c>
       <c r="D57" t="n">
-        <v>705.0599999999999</v>
+        <v>488.08</v>
       </c>
       <c r="E57" t="n">
-        <v>25.044</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>708.5700000000001</v>
+        <v>488.08</v>
       </c>
       <c r="D58" t="n">
-        <v>753.63</v>
+        <v>564.62</v>
       </c>
       <c r="E58" t="n">
-        <v>20.772</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>648.14</v>
+        <v>339.3</v>
       </c>
       <c r="D59" t="n">
-        <v>698.46</v>
+        <v>372.1</v>
       </c>
       <c r="E59" t="n">
-        <v>23.112</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>416.7</v>
+        <v>372.1</v>
       </c>
       <c r="D60" t="n">
-        <v>496.3</v>
+        <v>439.52</v>
       </c>
       <c r="E60" t="n">
-        <v>0.82</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>496.3</v>
+        <v>439.52</v>
       </c>
       <c r="D61" t="n">
-        <v>591.16</v>
+        <v>542.8200000000001</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1602,21 +1602,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>705.0599999999999</v>
+        <v>654.75</v>
       </c>
       <c r="D62" t="n">
-        <v>768.86</v>
+        <v>723.49</v>
       </c>
       <c r="E62" t="n">
-        <v>21.264</v>
+        <v>23.064</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>pond20</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>542.8200000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>605.14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26.928</v>
       </c>
     </row>
   </sheetData>
